--- a/Data_ions/additives_and_impurities.xlsx
+++ b/Data_ions/additives_and_impurities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesja78\Dropbox\Dokument Jobbet Linköping\PROJECT\Jacobsson - 2023 - Perovskite A cations\Code_v5\Data_ions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D41021F-9927-4F72-93BB-1548470BB6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079E981-F5D5-4D08-9B9B-67750331D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6447BB99-34A6-4752-9EA8-8BBF64583F68}"/>
+    <workbookView xWindow="1920" yWindow="195" windowWidth="29070" windowHeight="20025" xr2:uid="{6447BB99-34A6-4752-9EA8-8BBF64583F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>10101-63-0</t>
   </si>
   <si>
-    <t>Fe2+</t>
-  </si>
-  <si>
     <t>Iron(2+)</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>1317-63-1</t>
+  </si>
+  <si>
+    <t>Fe+2</t>
   </si>
 </sst>
 </file>
@@ -288,15 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,7 +762,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,32 +983,27 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
